--- a/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_seaice.xlsx
+++ b/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_seaice.xlsx
@@ -43,7 +43,7 @@
     <t>MPI-ESM-1-2-HAM</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Sea Ice</t>

--- a/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_seaice.xlsx
+++ b/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_seaice.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="4. Thermodynamics" sheetId="6" r:id="rId6"/>
     <sheet name="5. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="535">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1631,11 +1631,23 @@
   <si>
     <t>Ice radiation transmission per category</t>
   </si>
+  <si>
+    <t>Mauritsen_2019</t>
+  </si>
+  <si>
+    <t>Jungclaus_2013</t>
+  </si>
+  <si>
+    <t>Notz_2013</t>
+  </si>
+  <si>
+    <t>For a description of the unnamed sea ice model see Mauritsen et al. (2019), Jungclaus et al. (2013) and Notz et al. (2013).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1832,6 +1844,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1910,6 +1927,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1944,6 +1962,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2119,10 +2138,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2131,12 +2150,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2144,7 +2163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2152,7 +2171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2160,7 +2179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2168,7 +2187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2176,27 +2195,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20.25">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20.25">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20.25">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20.25">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="18">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2204,7 +2223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="18">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2212,7 +2231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="18">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2220,7 +2239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2228,13 +2247,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="20.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="20.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -2250,10 +2269,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2262,7 +2283,7 @@
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -2273,7 +2294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
@@ -2289,7 +2310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
@@ -2297,11 +2318,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="18">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -2317,7 +2338,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
@@ -2325,9 +2346,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="11" t="s">
+        <v>531</v>
+      </c>
       <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="11" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="11" t="s">
+        <v>533</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2347,10 +2380,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL149"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2446,8 +2481,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
@@ -2707,7 +2744,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="178" customHeight="1">
+    <row r="62" spans="1:3" ht="177.95" customHeight="1">
       <c r="B62" s="11"/>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -2956,7 +2993,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="178" customHeight="1">
+    <row r="111" spans="1:3" ht="177.95" customHeight="1">
       <c r="B111" s="11"/>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
@@ -3050,7 +3087,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="178" customHeight="1">
+    <row r="130" spans="1:30" ht="177.95" customHeight="1">
       <c r="B130" s="11"/>
     </row>
     <row r="132" spans="1:30" ht="24" customHeight="1">
@@ -3177,23 +3214,23 @@
       <formula1>AA33:AC33</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
       <formula1>AA135:AD135</formula1>
@@ -3207,8 +3244,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3279,7 +3316,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3465,7 +3502,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="178" customHeight="1">
+    <row r="40" spans="1:3" ht="177.95" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -3566,7 +3603,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="178" customHeight="1">
+    <row r="58" spans="1:30" ht="177.95" customHeight="1">
       <c r="B58" s="11"/>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
@@ -3677,7 +3714,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="178" customHeight="1">
+    <row r="80" spans="1:3" ht="177.95" customHeight="1">
       <c r="B80" s="11"/>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -3704,7 +3741,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="178" customHeight="1">
+    <row r="85" spans="1:3" ht="177.95" customHeight="1">
       <c r="B85" s="11"/>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
@@ -3788,7 +3825,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="178" customHeight="1">
+    <row r="102" spans="1:3" ht="177.95" customHeight="1">
       <c r="B102" s="11"/>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -3815,7 +3852,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="178" customHeight="1">
+    <row r="107" spans="1:3" ht="177.95" customHeight="1">
       <c r="B107" s="11"/>
     </row>
   </sheetData>
@@ -3859,8 +3896,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3931,7 +3968,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
+    <row r="11" spans="1:30" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
@@ -4135,8 +4172,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4207,7 +4244,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -4405,7 +4442,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="178" customHeight="1">
+    <row r="40" spans="1:3" ht="177.95" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -4432,7 +4469,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="178" customHeight="1">
+    <row r="45" spans="1:3" ht="177.95" customHeight="1">
       <c r="B45" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -4472,7 +4509,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="178" customHeight="1">
+    <row r="54" spans="1:29" ht="177.95" customHeight="1">
       <c r="B54" s="11"/>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
@@ -4499,7 +4536,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="178" customHeight="1">
+    <row r="59" spans="1:29" ht="177.95" customHeight="1">
       <c r="B59" s="11"/>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
@@ -4557,7 +4594,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="178" customHeight="1">
+    <row r="68" spans="1:3" ht="177.95" customHeight="1">
       <c r="B68" s="11"/>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -4584,7 +4621,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="178" customHeight="1">
+    <row r="73" spans="1:3" ht="177.95" customHeight="1">
       <c r="B73" s="11"/>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -4737,7 +4774,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="178" customHeight="1">
+    <row r="102" spans="1:30" ht="177.95" customHeight="1">
       <c r="B102" s="11"/>
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
@@ -4833,7 +4870,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="178" customHeight="1">
+    <row r="119" spans="1:29" ht="177.95" customHeight="1">
       <c r="B119" s="11"/>
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
@@ -4948,7 +4985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="140" spans="1:29" ht="178" customHeight="1">
+    <row r="140" spans="1:29" ht="177.95" customHeight="1">
       <c r="B140" s="11"/>
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
@@ -5115,7 +5152,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="178" customHeight="1">
+    <row r="170" spans="1:3" ht="177.95" customHeight="1">
       <c r="B170" s="11"/>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
@@ -5164,7 +5201,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="178" customHeight="1">
+    <row r="179" spans="1:29" ht="177.95" customHeight="1">
       <c r="B179" s="11"/>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
@@ -5235,8 +5272,8 @@
       <formula1>AA31:AD31</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
       <formula1>AA63:AC63</formula1>
@@ -5251,15 +5288,15 @@
       <formula1>AA93:AD93</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110">
       <formula1>AA110:AD110</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127">
       <formula1>AA127:AC127</formula1>
@@ -5291,8 +5328,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5363,7 +5400,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
+    <row r="11" spans="1:30" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">

--- a/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_seaice.xlsx
+++ b/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_seaice.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="4. Thermodynamics" sheetId="6" r:id="rId6"/>
     <sheet name="5. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="533">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -184,6 +184,9 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>For a description of the unnamed sea ice model see Mauritsen et al. (2019), Jungclaus et al. (2013) and Notz et al. (2013).</t>
+  </si>
+  <si>
     <t>1.2.1</t>
   </si>
   <si>
@@ -235,10 +238,10 @@
     <t>Salinity</t>
   </si>
   <si>
-    <t>Snow temperature</t>
-  </si>
-  <si>
-    <t>Snow depth</t>
+    <t>Snow temperature: Snow on ice temperature</t>
+  </si>
+  <si>
+    <t>Snow depth: Snow on ice thickness</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -265,10 +268,10 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
-    <t>TEOS-10</t>
-  </si>
-  <si>
-    <t>Constant</t>
+    <t>TEOS-10: Thermodynamic equation of seawater 2010.</t>
+  </si>
+  <si>
+    <t>Constant: Constant value of seawater freezing point is used.</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.2 </t>
@@ -633,13 +636,13 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.grid</t>
   </si>
   <si>
-    <t>Ocean grid</t>
-  </si>
-  <si>
-    <t>Atmosphere Grid</t>
-  </si>
-  <si>
-    <t>Own Grid</t>
+    <t>Ocean grid: Sea ice is horizontally discretised on the ocean grid.</t>
+  </si>
+  <si>
+    <t>Atmosphere Grid: Sea ice is horizontally discretised on the atmospheric grid.</t>
+  </si>
+  <si>
+    <t>Own Grid: Sea ice is horizontally discretised on its own independent grid.</t>
   </si>
   <si>
     <t>2.1.2.2 *</t>
@@ -660,7 +663,7 @@
     <t>Unstructured grid</t>
   </si>
   <si>
-    <t>Adaptive grid</t>
+    <t>Adaptive grid: Computational grid changes during the run</t>
   </si>
   <si>
     <t>2.1.2.3 *</t>
@@ -741,13 +744,13 @@
     <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
   </si>
   <si>
-    <t>Zero-layer</t>
-  </si>
-  <si>
-    <t>Two-layers</t>
-  </si>
-  <si>
-    <t>Multi-layers</t>
+    <t>Zero-layer: Simulation has no internal ice thermodynamics.</t>
+  </si>
+  <si>
+    <t>Two-layers: Simulation uses two layers (i.e. one ice and one snow layer).</t>
+  </si>
+  <si>
+    <t>Multi-layers: Simulation uses more than two layers.</t>
   </si>
   <si>
     <t>2.1.3.2 *</t>
@@ -936,7 +939,7 @@
     <t>cmip6.seaice.dynamics.horizontal_transport</t>
   </si>
   <si>
-    <t>Incremental Re-mapping</t>
+    <t>Incremental Re-mapping: (including Semi-Lagrangian)</t>
   </si>
   <si>
     <t>Prather</t>
@@ -1011,10 +1014,10 @@
     <t>Mohr-Coloumb</t>
   </si>
   <si>
-    <t>Visco-plastic</t>
-  </si>
-  <si>
-    <t>Elastic-visco-plastic</t>
+    <t>Visco-plastic: VP</t>
+  </si>
+  <si>
+    <t>Elastic-visco-plastic: EVP</t>
   </si>
   <si>
     <t>Elastic-anisotropic-plastic</t>
@@ -1134,13 +1137,13 @@
     <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
   </si>
   <si>
-    <t>Heat Reservoir</t>
-  </si>
-  <si>
-    <t>Thermal Fixed Salinity</t>
-  </si>
-  <si>
-    <t>Thermal Varying Salinity</t>
+    <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
+  </si>
+  <si>
+    <t>Thermal Fixed Salinity: Thermal properties depend on S-T (with fixed salinity).</t>
+  </si>
+  <si>
+    <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.5 </t>
@@ -1311,6 +1314,9 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
   </si>
   <si>
+    <t>Constant</t>
+  </si>
+  <si>
     <t>Prescribed salinity profile</t>
   </si>
   <si>
@@ -1608,10 +1614,10 @@
     <t>Delta-Eddington</t>
   </si>
   <si>
-    <t>Parameterized</t>
-  </si>
-  <si>
-    <t>Multi-band albedo</t>
+    <t>Parameterized: Sea ice albedo is parameterized.</t>
+  </si>
+  <si>
+    <t>Multi-band albedo: Albedo value has a spectral dependence.</t>
   </si>
   <si>
     <t>5.1.1.4 *</t>
@@ -1629,25 +1635,13 @@
     <t>Exponential attenuation</t>
   </si>
   <si>
-    <t>Ice radiation transmission per category</t>
-  </si>
-  <si>
-    <t>Mauritsen_2019</t>
-  </si>
-  <si>
-    <t>Jungclaus_2013</t>
-  </si>
-  <si>
-    <t>Notz_2013</t>
-  </si>
-  <si>
-    <t>For a description of the unnamed sea ice model see Mauritsen et al. (2019), Jungclaus et al. (2013) and Notz et al. (2013).</t>
+    <t>Ice radiation transmission per category: Radiation transmission through ice is different for each sea ice category.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1844,11 +1838,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1927,7 +1916,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1962,7 +1950,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2138,10 +2125,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2150,12 +2137,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33.75">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2163,7 +2150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2179,7 +2166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2187,7 +2174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2195,27 +2182,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.25">
+    <row r="9" spans="1:2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.25">
+    <row r="10" spans="1:2">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.25">
+    <row r="11" spans="1:2">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.25">
+    <row r="12" spans="1:2">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2223,7 +2210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18">
+    <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2231,7 +2218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18">
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2239,7 +2226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2247,13 +2234,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" ht="20.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -2269,12 +2256,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2283,7 +2268,7 @@
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -2294,7 +2279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
@@ -2310,7 +2295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75">
+    <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
@@ -2318,11 +2303,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18">
+    <row r="9" spans="1:2">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -2338,7 +2323,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
@@ -2346,21 +2331,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
-      <c r="A17" s="11" t="s">
-        <v>531</v>
-      </c>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:2" ht="18">
-      <c r="A18" s="11" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18">
-      <c r="A19" s="11" t="s">
-        <v>533</v>
-      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2380,12 +2353,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2481,41 +2452,41 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+    <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>534</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="24" customHeight="1">
@@ -2526,103 +2497,103 @@
     <row r="25" spans="1:38" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK25" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL25" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="24" customHeight="1">
       <c r="B29" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="24" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
       <c r="B33" s="11"/>
       <c r="AA33" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
@@ -2630,20 +2601,20 @@
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="B41" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>40</v>
@@ -2654,10 +2625,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -2665,10 +2636,10 @@
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
@@ -2676,10 +2647,10 @@
         <v>41</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
@@ -2687,21 +2658,21 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -2709,23 +2680,23 @@
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="B57" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -2733,10 +2704,10 @@
         <v>41</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -2744,15 +2715,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="177.95" customHeight="1">
+    <row r="62" spans="1:3" ht="178" customHeight="1">
       <c r="B62" s="11"/>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -2760,10 +2731,10 @@
         <v>41</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -2771,10 +2742,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -2782,10 +2753,10 @@
         <v>41</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -2798,10 +2769,10 @@
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
@@ -2809,10 +2780,10 @@
         <v>41</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
@@ -2825,10 +2796,10 @@
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -2836,10 +2807,10 @@
         <v>41</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
@@ -2852,34 +2823,34 @@
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="B85" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -2887,21 +2858,21 @@
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -2909,21 +2880,21 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -2931,10 +2902,10 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -2942,10 +2913,10 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -2958,23 +2929,23 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -2982,10 +2953,10 @@
         <v>41</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
@@ -2993,15 +2964,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="177.95" customHeight="1">
+    <row r="111" spans="1:3" ht="178" customHeight="1">
       <c r="B111" s="11"/>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -3009,10 +2980,10 @@
         <v>41</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -3025,10 +2996,10 @@
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
       <c r="A118" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
@@ -3036,10 +3007,10 @@
         <v>41</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -3052,23 +3023,23 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
       <c r="B125" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="A127" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
@@ -3076,10 +3047,10 @@
         <v>41</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" spans="1:30" ht="24" customHeight="1">
@@ -3087,26 +3058,26 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="177.95" customHeight="1">
+    <row r="130" spans="1:30" ht="178" customHeight="1">
       <c r="B130" s="11"/>
     </row>
     <row r="132" spans="1:30" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="1:30" ht="24" customHeight="1">
       <c r="A133" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="1:30" ht="24" customHeight="1">
@@ -3117,24 +3088,24 @@
     <row r="135" spans="1:30" ht="24" customHeight="1">
       <c r="B135" s="11"/>
       <c r="AA135" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD135" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:30" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="138" spans="1:30" ht="24" customHeight="1">
@@ -3142,10 +3113,10 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:30" ht="24" customHeight="1">
@@ -3158,21 +3129,21 @@
     </row>
     <row r="142" spans="1:30" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="143" spans="1:30" ht="24" customHeight="1">
       <c r="A143" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144" spans="1:30" ht="24" customHeight="1">
@@ -3180,10 +3151,10 @@
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
@@ -3191,10 +3162,10 @@
         <v>41</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -3214,23 +3185,23 @@
       <formula1>AA33:AC33</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
       <formula1>AA135:AD135</formula1>
@@ -3244,8 +3215,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3259,20 +3230,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -3283,10 +3254,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3294,7 +3265,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
@@ -3305,10 +3276,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3316,141 +3287,141 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -3458,21 +3429,21 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -3480,10 +3451,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -3491,10 +3462,10 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -3502,39 +3473,39 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="177.95" customHeight="1">
+    <row r="40" spans="1:3" ht="178" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -3545,35 +3516,35 @@
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="B49" s="11"/>
       <c r="AA49" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
@@ -3581,10 +3552,10 @@
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
@@ -3592,10 +3563,10 @@
         <v>41</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
@@ -3603,39 +3574,39 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="177.95" customHeight="1">
+    <row r="58" spans="1:30" ht="178" customHeight="1">
       <c r="B58" s="11"/>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -3643,21 +3614,21 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -3665,10 +3636,10 @@
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
@@ -3676,10 +3647,10 @@
         <v>41</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
@@ -3692,10 +3663,10 @@
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -3703,10 +3674,10 @@
         <v>41</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -3714,15 +3685,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="177.95" customHeight="1">
+    <row r="80" spans="1:3" ht="178" customHeight="1">
       <c r="B80" s="11"/>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -3730,10 +3701,10 @@
         <v>41</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
@@ -3741,39 +3712,39 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="177.95" customHeight="1">
+    <row r="85" spans="1:3" ht="178" customHeight="1">
       <c r="B85" s="11"/>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -3781,21 +3752,21 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -3803,10 +3774,10 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -3814,10 +3785,10 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -3825,15 +3796,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="177.95" customHeight="1">
+    <row r="102" spans="1:3" ht="178" customHeight="1">
       <c r="B102" s="11"/>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -3841,10 +3812,10 @@
         <v>41</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -3852,7 +3823,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="177.95" customHeight="1">
+    <row r="107" spans="1:3" ht="178" customHeight="1">
       <c r="B107" s="11"/>
     </row>
   </sheetData>
@@ -3896,8 +3867,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3911,20 +3882,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -3935,10 +3906,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -3946,7 +3917,7 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
@@ -3957,10 +3928,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
@@ -3968,125 +3939,125 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="177.95" customHeight="1">
+    <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="24" customHeight="1">
@@ -4097,56 +4068,56 @@
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="B28" s="11"/>
       <c r="AA28" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AE32" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4172,8 +4143,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4187,20 +4158,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -4211,10 +4182,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4222,7 +4193,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
@@ -4233,10 +4204,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -4244,175 +4215,175 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4420,10 +4391,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -4431,10 +4402,10 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -4442,15 +4413,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="177.95" customHeight="1">
+    <row r="40" spans="1:3" ht="178" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -4458,10 +4429,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -4469,28 +4440,28 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="177.95" customHeight="1">
+    <row r="45" spans="1:3" ht="178" customHeight="1">
       <c r="B45" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -4498,10 +4469,10 @@
         <v>41</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
@@ -4509,15 +4480,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="177.95" customHeight="1">
+    <row r="54" spans="1:29" ht="178" customHeight="1">
       <c r="B54" s="11"/>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
@@ -4525,10 +4496,10 @@
         <v>41</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
@@ -4536,46 +4507,46 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="177.95" customHeight="1">
+    <row r="59" spans="1:29" ht="178" customHeight="1">
       <c r="B59" s="11"/>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="B63" s="11"/>
       <c r="AA63" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4583,10 +4554,10 @@
         <v>41</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -4594,15 +4565,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="177.95" customHeight="1">
+    <row r="68" spans="1:3" ht="178" customHeight="1">
       <c r="B68" s="11"/>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -4610,10 +4581,10 @@
         <v>41</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -4621,39 +4592,39 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="177.95" customHeight="1">
+    <row r="73" spans="1:3" ht="178" customHeight="1">
       <c r="B73" s="11"/>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
@@ -4661,21 +4632,21 @@
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
@@ -4683,68 +4654,68 @@
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="B93" s="11"/>
       <c r="AA93" s="6" t="s">
-        <v>82</v>
+        <v>425</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
@@ -4752,10 +4723,10 @@
     </row>
     <row r="99" spans="1:30" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100" spans="1:30" ht="24" customHeight="1">
@@ -4763,10 +4734,10 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
@@ -4774,73 +4745,73 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="177.95" customHeight="1">
+    <row r="102" spans="1:30" ht="178" customHeight="1">
       <c r="B102" s="11"/>
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="24" customHeight="1">
       <c r="A109" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="24" customHeight="1">
       <c r="B110" s="11"/>
       <c r="AA110" s="6" t="s">
-        <v>82</v>
+        <v>425</v>
       </c>
       <c r="AB110" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AD110" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="24" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="24" customHeight="1">
@@ -4848,10 +4819,10 @@
     </row>
     <row r="116" spans="1:29" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="24" customHeight="1">
@@ -4859,10 +4830,10 @@
         <v>41</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="24" customHeight="1">
@@ -4870,103 +4841,103 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="177.95" customHeight="1">
+    <row r="119" spans="1:29" ht="178" customHeight="1">
       <c r="B119" s="11"/>
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="24" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="24" customHeight="1">
       <c r="A126" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
       <c r="B127" s="11"/>
       <c r="AA127" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
       <c r="B135" s="11"/>
       <c r="AA135" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="24" customHeight="1">
@@ -4974,10 +4945,10 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
@@ -4985,39 +4956,39 @@
         <v>53</v>
       </c>
     </row>
-    <row r="140" spans="1:29" ht="177.95" customHeight="1">
+    <row r="140" spans="1:29" ht="178" customHeight="1">
       <c r="B140" s="11"/>
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
       <c r="B144" s="13" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
@@ -5025,52 +4996,52 @@
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
       <c r="A151" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
       <c r="B152" s="11"/>
       <c r="AA152" s="6" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AB152" s="6" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AC152" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
       <c r="A155" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="24" customHeight="1">
@@ -5081,48 +5052,48 @@
     <row r="157" spans="1:30" ht="24" customHeight="1">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AB157" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AD157" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="A164" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -5130,10 +5101,10 @@
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -5141,10 +5112,10 @@
         <v>41</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
@@ -5152,26 +5123,26 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="177.95" customHeight="1">
+    <row r="170" spans="1:3" ht="178" customHeight="1">
       <c r="B170" s="11"/>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -5179,10 +5150,10 @@
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -5190,10 +5161,10 @@
         <v>41</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
@@ -5201,15 +5172,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="177.95" customHeight="1">
+    <row r="179" spans="1:29" ht="178" customHeight="1">
       <c r="B179" s="11"/>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="182" spans="1:29" ht="24" customHeight="1">
@@ -5217,10 +5188,10 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
@@ -5228,33 +5199,33 @@
     </row>
     <row r="185" spans="1:29" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="186" spans="1:29" ht="24" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="187" spans="1:29" ht="24" customHeight="1">
       <c r="B187" s="11"/>
       <c r="AA187" s="6" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AB187" s="6" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AC187" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5272,8 +5243,8 @@
       <formula1>AA31:AD31</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
       <formula1>AA63:AC63</formula1>
@@ -5288,15 +5259,15 @@
       <formula1>AA93:AD93</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110">
       <formula1>AA110:AD110</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
-      <formula1>-1000000</formula1>
-      <formula2>1000000</formula2>
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127">
       <formula1>AA127:AC127</formula1>
@@ -5328,8 +5299,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5343,20 +5314,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -5367,10 +5338,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5378,7 +5349,7 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
@@ -5389,10 +5360,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
@@ -5400,60 +5371,60 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="177.95" customHeight="1">
+    <row r="11" spans="1:30" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5464,16 +5435,16 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_seaice.xlsx
+++ b/cmip6/models/mpi-esm-1-2-ham/cmip6_hammoz-consortium_mpi-esm-1-2-ham_seaice.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="4. Thermodynamics" sheetId="6" r:id="rId6"/>
     <sheet name="5. Radiative Processes" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="535">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -184,9 +184,6 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>For a description of the unnamed sea ice model see Mauritsen et al. (2019), Jungclaus et al. (2013) and Notz et al. (2013).</t>
-  </si>
-  <si>
     <t>1.2.1</t>
   </si>
   <si>
@@ -238,10 +235,10 @@
     <t>Salinity</t>
   </si>
   <si>
-    <t>Snow temperature: Snow on ice temperature</t>
-  </si>
-  <si>
-    <t>Snow depth: Snow on ice thickness</t>
+    <t>Snow temperature</t>
+  </si>
+  <si>
+    <t>Snow depth</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -268,10 +265,10 @@
     <t>cmip6.seaice.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
-    <t>TEOS-10: Thermodynamic equation of seawater 2010.</t>
-  </si>
-  <si>
-    <t>Constant: Constant value of seawater freezing point is used.</t>
+    <t>TEOS-10</t>
+  </si>
+  <si>
+    <t>Constant</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.2 </t>
@@ -636,13 +633,13 @@
     <t>cmip6.seaice.grid.discretisation.horizontal.grid</t>
   </si>
   <si>
-    <t>Ocean grid: Sea ice is horizontally discretised on the ocean grid.</t>
-  </si>
-  <si>
-    <t>Atmosphere Grid: Sea ice is horizontally discretised on the atmospheric grid.</t>
-  </si>
-  <si>
-    <t>Own Grid: Sea ice is horizontally discretised on its own independent grid.</t>
+    <t>Ocean grid</t>
+  </si>
+  <si>
+    <t>Atmosphere Grid</t>
+  </si>
+  <si>
+    <t>Own Grid</t>
   </si>
   <si>
     <t>2.1.2.2 *</t>
@@ -663,7 +660,7 @@
     <t>Unstructured grid</t>
   </si>
   <si>
-    <t>Adaptive grid: Computational grid changes during the run</t>
+    <t>Adaptive grid</t>
   </si>
   <si>
     <t>2.1.2.3 *</t>
@@ -744,13 +741,13 @@
     <t>cmip6.seaice.grid.discretisation.vertical.layering</t>
   </si>
   <si>
-    <t>Zero-layer: Simulation has no internal ice thermodynamics.</t>
-  </si>
-  <si>
-    <t>Two-layers: Simulation uses two layers (i.e. one ice and one snow layer).</t>
-  </si>
-  <si>
-    <t>Multi-layers: Simulation uses more than two layers.</t>
+    <t>Zero-layer</t>
+  </si>
+  <si>
+    <t>Two-layers</t>
+  </si>
+  <si>
+    <t>Multi-layers</t>
   </si>
   <si>
     <t>2.1.3.2 *</t>
@@ -939,7 +936,7 @@
     <t>cmip6.seaice.dynamics.horizontal_transport</t>
   </si>
   <si>
-    <t>Incremental Re-mapping: (including Semi-Lagrangian)</t>
+    <t>Incremental Re-mapping</t>
   </si>
   <si>
     <t>Prather</t>
@@ -1014,10 +1011,10 @@
     <t>Mohr-Coloumb</t>
   </si>
   <si>
-    <t>Visco-plastic: VP</t>
-  </si>
-  <si>
-    <t>Elastic-visco-plastic: EVP</t>
+    <t>Visco-plastic</t>
+  </si>
+  <si>
+    <t>Elastic-visco-plastic</t>
   </si>
   <si>
     <t>Elastic-anisotropic-plastic</t>
@@ -1137,13 +1134,13 @@
     <t>cmip6.seaice.thermodynamics.energy.basal_heat_flux</t>
   </si>
   <si>
-    <t>Heat Reservoir: Brine inclusions treated as a heat reservoir.</t>
-  </si>
-  <si>
-    <t>Thermal Fixed Salinity: Thermal properties depend on S-T (with fixed salinity).</t>
-  </si>
-  <si>
-    <t>Thermal Varying Salinity: Thermal properties depend on S-T (with varying salinity.</t>
+    <t>Heat Reservoir</t>
+  </si>
+  <si>
+    <t>Thermal Fixed Salinity</t>
+  </si>
+  <si>
+    <t>Thermal Varying Salinity</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.5 </t>
@@ -1314,9 +1311,6 @@
     <t>cmip6.seaice.thermodynamics.salt.mass_transport.salinity_type</t>
   </si>
   <si>
-    <t>Constant</t>
-  </si>
-  <si>
     <t>Prescribed salinity profile</t>
   </si>
   <si>
@@ -1614,10 +1608,10 @@
     <t>Delta-Eddington</t>
   </si>
   <si>
-    <t>Parameterized: Sea ice albedo is parameterized.</t>
-  </si>
-  <si>
-    <t>Multi-band albedo: Albedo value has a spectral dependence.</t>
+    <t>Parameterized</t>
+  </si>
+  <si>
+    <t>Multi-band albedo</t>
   </si>
   <si>
     <t>5.1.1.4 *</t>
@@ -1635,13 +1629,25 @@
     <t>Exponential attenuation</t>
   </si>
   <si>
-    <t>Ice radiation transmission per category: Radiation transmission through ice is different for each sea ice category.</t>
+    <t>Ice radiation transmission per category</t>
+  </si>
+  <si>
+    <t>Mauritsen_2019</t>
+  </si>
+  <si>
+    <t>Jungclaus_2013</t>
+  </si>
+  <si>
+    <t>Notz_2013</t>
+  </si>
+  <si>
+    <t>For a description of the unnamed sea ice model see Mauritsen et al. (2019), Jungclaus et al. (2013) and Notz et al. (2013).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1838,6 +1844,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1916,6 +1927,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1950,6 +1962,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2125,10 +2138,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2137,12 +2150,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2150,7 +2163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2158,7 +2171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2166,7 +2179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2174,7 +2187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2182,27 +2195,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20.25">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20.25">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20.25">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20.25">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="18">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2210,7 +2223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="18">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2218,7 +2231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="18">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2226,7 +2239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2234,13 +2247,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="20.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="20.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -2256,10 +2269,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2268,7 +2283,7 @@
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -2279,7 +2294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
@@ -2295,7 +2310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
@@ -2303,11 +2318,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="18">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -2323,7 +2338,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
@@ -2331,9 +2346,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="11" t="s">
+        <v>531</v>
+      </c>
       <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="11" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="11" t="s">
+        <v>533</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2353,8 +2380,872 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL149"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
+      <c r="B2" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24" customHeight="1">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
+      <c r="B15" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" ht="24" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" ht="24" customHeight="1">
+      <c r="B20" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" ht="24" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" ht="24" customHeight="1">
+      <c r="A23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" ht="24" customHeight="1">
+      <c r="B24" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" ht="24" customHeight="1">
+      <c r="B25" s="11"/>
+      <c r="AA25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL25" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" ht="24" customHeight="1">
+      <c r="A28" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" ht="24" customHeight="1">
+      <c r="B29" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" ht="24" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" ht="24" customHeight="1">
+      <c r="A32" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="24" customHeight="1">
+      <c r="B33" s="11"/>
+      <c r="AA33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="24" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="24" customHeight="1">
+      <c r="A36" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="24" customHeight="1">
+      <c r="B37" s="11"/>
+    </row>
+    <row r="40" spans="1:29" ht="24" customHeight="1">
+      <c r="A40" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="24" customHeight="1">
+      <c r="B41" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="24" customHeight="1">
+      <c r="A43" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="24" customHeight="1">
+      <c r="A44" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="24" customHeight="1">
+      <c r="B45" s="11"/>
+    </row>
+    <row r="47" spans="1:29" ht="24" customHeight="1">
+      <c r="A47" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="24" customHeight="1">
+      <c r="A48" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1">
+      <c r="B49" s="11"/>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1">
+      <c r="A51" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1">
+      <c r="A52" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="B53" s="11"/>
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1">
+      <c r="A56" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1">
+      <c r="B57" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1">
+      <c r="A59" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="24" customHeight="1">
+      <c r="A60" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="24" customHeight="1">
+      <c r="B61" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B62" s="11"/>
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1">
+      <c r="A64" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
+      <c r="A65" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1">
+      <c r="B66" s="11"/>
+    </row>
+    <row r="68" spans="1:3" ht="24" customHeight="1">
+      <c r="A68" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24" customHeight="1">
+      <c r="A69" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="B70" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="B71" s="11"/>
+    </row>
+    <row r="73" spans="1:3" ht="24" customHeight="1">
+      <c r="A73" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="24" customHeight="1">
+      <c r="A74" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="B75" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="B76" s="11"/>
+    </row>
+    <row r="78" spans="1:3" ht="24" customHeight="1">
+      <c r="A78" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="A79" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="24" customHeight="1">
+      <c r="B80" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1">
+      <c r="B81" s="11"/>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="A84" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="B85" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="A87" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="A88" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="A95" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="A96" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="A99" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="24" customHeight="1">
+      <c r="A100" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="B101" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="B102" s="11"/>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="A105" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="B106" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="24" customHeight="1">
+      <c r="A108" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="24" customHeight="1">
+      <c r="A109" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" customHeight="1">
+      <c r="B110" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B111" s="11"/>
+    </row>
+    <row r="113" spans="1:3" ht="24" customHeight="1">
+      <c r="A113" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1">
+      <c r="A114" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="24" customHeight="1">
+      <c r="B115" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="B116" s="11"/>
+    </row>
+    <row r="118" spans="1:3" ht="24" customHeight="1">
+      <c r="A118" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="24" customHeight="1">
+      <c r="A119" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="24" customHeight="1">
+      <c r="B120" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="24" customHeight="1">
+      <c r="B121" s="11"/>
+    </row>
+    <row r="124" spans="1:3" ht="24" customHeight="1">
+      <c r="A124" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="24" customHeight="1">
+      <c r="B125" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="24" customHeight="1">
+      <c r="A127" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="24" customHeight="1">
+      <c r="A128" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" ht="24" customHeight="1">
+      <c r="B129" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" ht="177.95" customHeight="1">
+      <c r="B130" s="11"/>
+    </row>
+    <row r="132" spans="1:30" ht="24" customHeight="1">
+      <c r="A132" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" ht="24" customHeight="1">
+      <c r="A133" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" ht="24" customHeight="1">
+      <c r="B134" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" ht="24" customHeight="1">
+      <c r="B135" s="11"/>
+      <c r="AA135" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB135" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC135" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD135" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30" ht="24" customHeight="1">
+      <c r="A137" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" ht="24" customHeight="1">
+      <c r="A138" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" ht="24" customHeight="1">
+      <c r="B139" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" ht="24" customHeight="1">
+      <c r="B140" s="11"/>
+    </row>
+    <row r="142" spans="1:30" ht="24" customHeight="1">
+      <c r="A142" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" ht="24" customHeight="1">
+      <c r="A143" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" ht="24" customHeight="1">
+      <c r="B144" s="11"/>
+    </row>
+    <row r="146" spans="1:3" ht="24" customHeight="1">
+      <c r="A146" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="24" customHeight="1">
+      <c r="A147" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="24" customHeight="1">
+      <c r="B148" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="24" customHeight="1">
+      <c r="B149" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>AA25:AL25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+      <formula1>AA33:AC33</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
+      <formula1>AA135:AD135</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B144">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2368,20 +3259,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -2392,10 +3283,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -2403,10 +3294,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2414,327 +3305,337 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
+      <c r="B15" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="24" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="24" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="24" customHeight="1">
+      <c r="B19" s="11"/>
+      <c r="AA19" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="24" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="24" customHeight="1">
+      <c r="A22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="24" customHeight="1">
+      <c r="B23" s="11"/>
+      <c r="AA23" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="24" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="24" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="24" customHeight="1">
+      <c r="B27" s="11"/>
+      <c r="AA27" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="24" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="24" customHeight="1">
+      <c r="A30" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="24" customHeight="1">
+      <c r="B31" s="11"/>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="8" t="s">
+      <c r="B38" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="B39" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" ht="24" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" ht="24" customHeight="1">
-      <c r="B20" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="9" t="s">
+    <row r="40" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1">
+      <c r="A43" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1">
+      <c r="B44" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1">
+      <c r="A47" s="14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:38" ht="24" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:38" ht="24" customHeight="1">
-      <c r="B24" s="10" t="s">
+      <c r="B47" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1">
+      <c r="B48" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
-      <c r="AA25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF25" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI25" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK25" s="6" t="s">
+    <row r="49" spans="1:30" ht="24" customHeight="1">
+      <c r="B49" s="11"/>
+      <c r="AA49" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB49" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC49" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD49" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AL25" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" ht="24" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:38" ht="24" customHeight="1">
-      <c r="B29" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:38" ht="24" customHeight="1">
-      <c r="A32" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
-      <c r="AA33" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB33" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC33" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="A36" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="A40" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="24" customHeight="1">
-      <c r="B41" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1">
-      <c r="A44" s="14" t="s">
+    </row>
+    <row r="51" spans="1:30" ht="24" customHeight="1">
+      <c r="A51" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="24" customHeight="1">
+      <c r="A52" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="24" customHeight="1">
+      <c r="B53" s="11"/>
+    </row>
+    <row r="55" spans="1:30" ht="24" customHeight="1">
+      <c r="A55" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="24" customHeight="1">
+      <c r="A56" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
-    </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="B57" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="8" t="s">
+      <c r="B56" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="24" customHeight="1">
+      <c r="B57" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="178" customHeight="1">
-      <c r="B62" s="11"/>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
+    <row r="58" spans="1:30" ht="177.95" customHeight="1">
+      <c r="B58" s="11"/>
+    </row>
+    <row r="61" spans="1:30" ht="24" customHeight="1">
+      <c r="A61" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="24" customHeight="1">
+      <c r="B62" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>111</v>
+        <v>249</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>112</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="14" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>113</v>
+        <v>251</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>114</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -2742,137 +3643,137 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>115</v>
+        <v>253</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>116</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="B70" s="11"/>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="A72" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="24" customHeight="1">
+      <c r="A73" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="8" t="s">
+      <c r="B73" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="24" customHeight="1">
+      <c r="B74" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="14" t="s">
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="B75" s="11"/>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="24" customHeight="1">
+      <c r="A78" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="B76" s="11"/>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>124</v>
+      <c r="B78" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="A79" s="14" t="s">
+      <c r="B79" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B80" s="11"/>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="A83" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="24" customHeight="1">
-      <c r="B80" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="B81" s="11"/>
+      <c r="B83" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="B85" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>131</v>
-      </c>
+      <c r="B84" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B85" s="11"/>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>133</v>
+      <c r="A88" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="B89" s="11"/>
+      <c r="B89" s="13" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>135</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>136</v>
+        <v>274</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>137</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -2880,21 +3781,21 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>139</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>140</v>
+        <v>278</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>141</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -2902,10 +3803,10 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>143</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -2913,882 +3814,10 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="B102" s="11"/>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="B106" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="A109" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="B110" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="178" customHeight="1">
-      <c r="B111" s="11"/>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="B115" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="B116" s="11"/>
-    </row>
-    <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="A118" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="B120" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="11"/>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="B125" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="A127" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="129" spans="1:30" ht="24" customHeight="1">
-      <c r="B129" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="130" spans="1:30" ht="178" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:30" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="133" spans="1:30" ht="24" customHeight="1">
-      <c r="A133" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="134" spans="1:30" ht="24" customHeight="1">
-      <c r="B134" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="1:30" ht="24" customHeight="1">
-      <c r="B135" s="11"/>
-      <c r="AA135" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB135" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC135" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD135" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="137" spans="1:30" ht="24" customHeight="1">
-      <c r="A137" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="138" spans="1:30" ht="24" customHeight="1">
-      <c r="A138" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="139" spans="1:30" ht="24" customHeight="1">
-      <c r="B139" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="140" spans="1:30" ht="24" customHeight="1">
-      <c r="B140" s="11"/>
-    </row>
-    <row r="142" spans="1:30" ht="24" customHeight="1">
-      <c r="A142" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="143" spans="1:30" ht="24" customHeight="1">
-      <c r="A143" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="144" spans="1:30" ht="24" customHeight="1">
-      <c r="B144" s="11"/>
-    </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="A146" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="24" customHeight="1">
-      <c r="A147" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="B148" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="B149" s="11"/>
-    </row>
-  </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AL25</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>AA33:AC33</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>AA135:AD135</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B144">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD107"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="24" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
-      <c r="AA19" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD19" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="24" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
-      <c r="AA23" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="24" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="24" customHeight="1">
-      <c r="A26" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
-      <c r="AA27" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="24" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1">
-      <c r="A30" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
-    </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="178" customHeight="1">
-      <c r="B40" s="11"/>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="B48" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
-      <c r="AA49" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB49" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC49" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD49" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" ht="24" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="55" spans="1:30" ht="24" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="A56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" ht="24" customHeight="1">
-      <c r="B57" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="178" customHeight="1">
-      <c r="B58" s="11"/>
-    </row>
-    <row r="61" spans="1:30" ht="24" customHeight="1">
-      <c r="A61" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1">
-      <c r="B62" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="B66" s="11"/>
-    </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="A68" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="B70" s="11"/>
-    </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="A72" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="B74" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="B79" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="178" customHeight="1">
-      <c r="B80" s="11"/>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="A83" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="B84" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="178" customHeight="1">
-      <c r="B85" s="11"/>
-    </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="B89" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="A92" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="11"/>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B100" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -3796,15 +3825,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="178" customHeight="1">
+    <row r="102" spans="1:3" ht="177.95" customHeight="1">
       <c r="B102" s="11"/>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -3812,10 +3841,10 @@
         <v>41</v>
       </c>
       <c r="B105" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C105" s="10" t="s">
         <v>286</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -3823,7 +3852,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="178" customHeight="1">
+    <row r="107" spans="1:3" ht="177.95" customHeight="1">
       <c r="B107" s="11"/>
     </row>
   </sheetData>
@@ -3867,8 +3896,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3882,20 +3911,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>288</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -3906,10 +3935,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>292</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -3917,7 +3946,7 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
@@ -3928,10 +3957,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>295</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
@@ -3939,125 +3968,125 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
+    <row r="11" spans="1:30" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>297</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>299</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB15" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="AB15" s="6" t="s">
+      <c r="AC15" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="AC15" s="6" t="s">
-        <v>303</v>
-      </c>
       <c r="AD15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>304</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>306</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB19" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="AB19" s="6" t="s">
+      <c r="AC19" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="AC19" s="6" t="s">
-        <v>303</v>
-      </c>
       <c r="AD19" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>310</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB23" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="AB23" s="6" t="s">
-        <v>313</v>
-      </c>
       <c r="AC23" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>314</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>316</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="24" customHeight="1">
@@ -4068,56 +4097,56 @@
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="B28" s="11"/>
       <c r="AA28" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB28" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="AB28" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="AC28" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>320</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>322</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
       <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB32" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="AB32" s="6" t="s">
+      <c r="AC32" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="AC32" s="6" t="s">
+      <c r="AD32" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="AD32" s="6" t="s">
+      <c r="AE32" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="AE32" s="6" t="s">
+      <c r="AF32" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="AF32" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="AG32" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4143,8 +4172,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4158,20 +4187,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -4182,10 +4211,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>334</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4193,7 +4222,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
@@ -4204,10 +4233,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>337</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -4215,175 +4244,175 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>339</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB19" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="AB19" s="6" t="s">
+      <c r="AC19" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="AC19" s="6" t="s">
+      <c r="AD19" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="AD19" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="AE19" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>350</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB23" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="AB23" s="6" t="s">
-        <v>355</v>
-      </c>
       <c r="AC23" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>358</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB27" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="AB27" s="6" t="s">
+      <c r="AC27" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="AC27" s="6" t="s">
-        <v>362</v>
-      </c>
       <c r="AD27" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>365</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB31" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="AB31" s="6" t="s">
+      <c r="AC31" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="AC31" s="6" t="s">
-        <v>369</v>
-      </c>
       <c r="AD31" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>370</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>372</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4391,10 +4420,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -4402,10 +4431,10 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>376</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -4413,15 +4442,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="178" customHeight="1">
+    <row r="40" spans="1:3" ht="177.95" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -4429,10 +4458,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>380</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -4440,28 +4469,28 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="178" customHeight="1">
+    <row r="45" spans="1:3" ht="177.95" customHeight="1">
       <c r="B45" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>382</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>385</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -4469,10 +4498,10 @@
         <v>41</v>
       </c>
       <c r="B52" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>387</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
@@ -4480,15 +4509,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="178" customHeight="1">
+    <row r="54" spans="1:29" ht="177.95" customHeight="1">
       <c r="B54" s="11"/>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>389</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
@@ -4496,10 +4525,10 @@
         <v>41</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>391</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
@@ -4507,46 +4536,46 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="178" customHeight="1">
+    <row r="59" spans="1:29" ht="177.95" customHeight="1">
       <c r="B59" s="11"/>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>395</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="B63" s="11"/>
       <c r="AA63" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB63" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="AB63" s="6" t="s">
-        <v>398</v>
-      </c>
       <c r="AC63" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>399</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4554,10 +4583,10 @@
         <v>41</v>
       </c>
       <c r="B66" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>401</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -4565,15 +4594,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="178" customHeight="1">
+    <row r="68" spans="1:3" ht="177.95" customHeight="1">
       <c r="B68" s="11"/>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>403</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -4581,10 +4610,10 @@
         <v>41</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>405</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -4592,39 +4621,39 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="178" customHeight="1">
+    <row r="73" spans="1:3" ht="177.95" customHeight="1">
       <c r="B73" s="11"/>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B76" s="12" t="s">
         <v>407</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>410</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B80" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>412</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
@@ -4632,21 +4661,21 @@
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B84" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C84" s="10" t="s">
         <v>416</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
@@ -4654,68 +4683,68 @@
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>418</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>421</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B92" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C92" s="10" t="s">
         <v>423</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="B93" s="11"/>
       <c r="AA93" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB93" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC93" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="AB93" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC93" s="6" t="s">
-        <v>427</v>
-      </c>
       <c r="AD93" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="24" customHeight="1">
@@ -4723,10 +4752,10 @@
     </row>
     <row r="99" spans="1:30" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:30" ht="24" customHeight="1">
@@ -4734,10 +4763,10 @@
         <v>41</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="24" customHeight="1">
@@ -4745,73 +4774,73 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="178" customHeight="1">
+    <row r="102" spans="1:30" ht="177.95" customHeight="1">
       <c r="B102" s="11"/>
     </row>
     <row r="105" spans="1:30" ht="24" customHeight="1">
       <c r="A105" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="24" customHeight="1">
       <c r="B106" s="13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="24" customHeight="1">
       <c r="A109" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="24" customHeight="1">
       <c r="B110" s="11"/>
       <c r="AA110" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB110" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC110" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="AB110" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC110" s="6" t="s">
-        <v>427</v>
-      </c>
       <c r="AD110" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="24" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="24" customHeight="1">
@@ -4819,10 +4848,10 @@
     </row>
     <row r="116" spans="1:29" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="24" customHeight="1">
@@ -4830,10 +4859,10 @@
         <v>41</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="24" customHeight="1">
@@ -4841,103 +4870,103 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="178" customHeight="1">
+    <row r="119" spans="1:29" ht="177.95" customHeight="1">
       <c r="B119" s="11"/>
     </row>
     <row r="122" spans="1:29" ht="24" customHeight="1">
       <c r="A122" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="24" customHeight="1">
       <c r="B123" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="24" customHeight="1">
       <c r="A126" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="24" customHeight="1">
       <c r="B127" s="11"/>
       <c r="AA127" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AB127" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="133" spans="1:29" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
       <c r="B135" s="11"/>
       <c r="AA135" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AB135" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="24" customHeight="1">
@@ -4945,10 +4974,10 @@
         <v>41</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="139" spans="1:29" ht="24" customHeight="1">
@@ -4956,39 +4985,39 @@
         <v>53</v>
       </c>
     </row>
-    <row r="140" spans="1:29" ht="178" customHeight="1">
+    <row r="140" spans="1:29" ht="177.95" customHeight="1">
       <c r="B140" s="11"/>
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
       <c r="B144" s="13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="146" spans="1:30" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="147" spans="1:30" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="148" spans="1:30" ht="24" customHeight="1">
@@ -4996,52 +5025,52 @@
     </row>
     <row r="150" spans="1:30" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="151" spans="1:30" ht="24" customHeight="1">
       <c r="A151" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="152" spans="1:30" ht="24" customHeight="1">
       <c r="B152" s="11"/>
       <c r="AA152" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AB152" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AC152" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="154" spans="1:30" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="155" spans="1:30" ht="24" customHeight="1">
       <c r="A155" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="156" spans="1:30" ht="24" customHeight="1">
@@ -5052,48 +5081,48 @@
     <row r="157" spans="1:30" ht="24" customHeight="1">
       <c r="B157" s="11"/>
       <c r="AA157" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AB157" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="AC157" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="AB157" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="AC157" s="6" t="s">
-        <v>483</v>
-      </c>
       <c r="AD157" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="160" spans="1:30" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="B161" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="A164" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -5101,10 +5130,10 @@
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -5112,10 +5141,10 @@
         <v>41</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
@@ -5123,26 +5152,26 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="178" customHeight="1">
+    <row r="170" spans="1:3" ht="177.95" customHeight="1">
       <c r="B170" s="11"/>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -5150,10 +5179,10 @@
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -5161,10 +5190,10 @@
         <v>41</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
@@ -5172,15 +5201,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="178" customHeight="1">
+    <row r="179" spans="1:29" ht="177.95" customHeight="1">
       <c r="B179" s="11"/>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:29" ht="24" customHeight="1">
@@ -5188,10 +5217,10 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
@@ -5199,33 +5228,33 @@
     </row>
     <row r="185" spans="1:29" ht="24" customHeight="1">
       <c r="A185" s="9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="186" spans="1:29" ht="24" customHeight="1">
       <c r="A186" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="187" spans="1:29" ht="24" customHeight="1">
       <c r="B187" s="11"/>
       <c r="AA187" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AB187" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AC187" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5243,8 +5272,8 @@
       <formula1>AA31:AD31</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
       <formula1>AA63:AC63</formula1>
@@ -5259,15 +5288,15 @@
       <formula1>AA93:AD93</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110">
       <formula1>AA110:AD110</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127">
       <formula1>AA127:AC127</formula1>
@@ -5299,8 +5328,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5314,20 +5343,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
@@ -5338,10 +5367,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5349,7 +5378,7 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
@@ -5360,10 +5389,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
@@ -5371,60 +5400,60 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
+    <row r="11" spans="1:30" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="AC15" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="AB15" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>526</v>
-      </c>
       <c r="AD15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5435,16 +5464,16 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
